--- a/tests/xlsx/hide-columns.xlsx
+++ b/tests/xlsx/hide-columns.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>string_pattern</t>
+  </si>
+  <si>
+    <t>integer_enum</t>
+  </si>
+  <si>
+    <t>number_enum</t>
   </si>
   <si>
     <t>main_id</t>
@@ -407,7 +413,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -423,10 +429,12 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,12 +455,18 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>OR(AND(ISBLANK(A2), COUNTBLANK($A2:$G2) &lt;&gt; 7), IF(ISBLANK(A2), FALSE, OR(IF(ISNUMBER(A2), INT(A2) &lt;&gt; A2, TRUE), COUNTIF(A$2:A$1048576, A2) &gt;= 2, A2 &lt; 1)))</formula>
+      <formula>OR(AND(ISBLANK(A2), COUNTBLANK($A2:$I2) &lt;&gt; 9), IF(ISBLANK(A2), FALSE, OR(IF(ISNUMBER(A2), INT(A2) &lt;&gt; A2, TRUE), COUNTIF(A$2:A$1048576, A2) &gt;= 2, A2 &lt; 1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B1048576">
@@ -480,12 +494,28 @@
       <formula>IF(ISBLANK(F2), FALSE, ISNA(MATCH(F2, 'lists'!$A$1:$A$3, 0)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <conditionalFormatting sqref="H2:H1048576">
+    <cfRule type="expression" dxfId="0" priority="7">
+      <formula>IF(ISBLANK(H2), FALSE, OR(IF(ISNUMBER(H2), INT(H2) &lt;&gt; H2, TRUE), ISNA(MATCH(H2, 'lists'!$B$1:$B$3, 0))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:I1048576">
+    <cfRule type="expression" dxfId="0" priority="8">
+      <formula>IF(ISBLANK(I2), FALSE, OR(NOT(ISNUMBER(I2)), ISNA(MATCH(I2, 'lists'!$C$1:$C$3, 0))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Invalid value" error="Value must be in the dropdown list" sqref="D2:D1048576">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Invalid value" error="Value must be in the dropdown list" sqref="F2:F1048576">
       <formula1>'lists'!$A$1:$A$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Invalid value" error="Value must be in the dropdown list" sqref="H2:H1048576">
+      <formula1>'lists'!$B$1:$B$3</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" errorTitle="Invalid value" error="Value must be in the dropdown list" sqref="I2:I1048576">
+      <formula1>'lists'!$C$1:$C$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -509,7 +539,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -545,10 +575,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -576,25 +606,43 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1.25</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>1.5</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>1.75</v>
       </c>
     </row>
   </sheetData>

--- a/tests/xlsx/hide-columns.xlsx
+++ b/tests/xlsx/hide-columns.xlsx
@@ -110,7 +110,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,15 +424,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
     <col min="10" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -533,7 +535,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -568,8 +570,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/tests/xlsx/hide-columns.xlsx
+++ b/tests/xlsx/hide-columns.xlsx
@@ -111,7 +111,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
